--- a/data/input/acoustic_panels.xlsx
+++ b/data/input/acoustic_panels.xlsx
@@ -1,53 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valdemarlyngdal/Desktop/product_manager/data/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0086CBBD-F7DB-6849-A66E-AAC458E03225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="860" windowWidth="16100" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>product_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>shop_sku</t>
+  </si>
+  <si>
+    <t>title_en</t>
+  </si>
+  <si>
+    <t>title_fr</t>
+  </si>
+  <si>
+    <t>title_it</t>
+  </si>
+  <si>
+    <t>title_es</t>
+  </si>
+  <si>
+    <t>title_pt</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>description_fr</t>
+  </si>
+  <si>
+    <t>description_it</t>
+  </si>
+  <si>
+    <t>description_es</t>
+  </si>
+  <si>
+    <t>description_pt</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>main_image</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
-    <t>category</t>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>width</t>
   </si>
   <si>
     <t>colour</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>PROD001</t>
-  </si>
-  <si>
-    <t>acoustic_panel</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Wood</t>
+    <t>Acoustic panel in black</t>
+  </si>
+  <si>
+    <t>Panneau acoustique en noir</t>
+  </si>
+  <si>
+    <t>Pannello acustico in nero</t>
+  </si>
+  <si>
+    <t>Panel acústico en negro</t>
+  </si>
+  <si>
+    <t>Painel acústico em preto</t>
+  </si>
+  <si>
+    <t>Pretty panel for your walls</t>
+  </si>
+  <si>
+    <t>Un joli panneau pour vos murs</t>
+  </si>
+  <si>
+    <t>Un bel pannello per le vostre pareti</t>
+  </si>
+  <si>
+    <t>Bonito panel para sus paredes</t>
+  </si>
+  <si>
+    <t>Painel bonito para as suas paredes</t>
+  </si>
+  <si>
+    <t>https://nordicacoustics.com/wp-content/uploads/2025/04/Classic-Main-Flag-1.png</t>
+  </si>
+  <si>
+    <t>Beige</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +128,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,27 +169,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +310,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,14 +486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,25 +511,100 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2141251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>2141251</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
         <v>240</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="O2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>